--- a/results/mp/logistic/corona/confidence/84/stop-words-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,18 +43,21 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>war</t>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fears</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -67,103 +70,94 @@
     <t>co</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -521,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,7 +526,7 @@
         <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -590,13 +584,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7534246575342466</v>
+        <v>0.7465753424657534</v>
       </c>
       <c r="C3">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D3">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,19 +602,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K3">
-        <v>0.9333333333333333</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -632,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -640,7 +634,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6578947368421053</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C4">
         <v>25</v>
@@ -658,19 +652,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K4">
-        <v>0.9130434782608695</v>
+        <v>0.925</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="M4">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -682,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -690,13 +684,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.455026455026455</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C5">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -708,19 +702,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.8813559322033898</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -732,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -740,13 +734,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4515503875968992</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="C6">
-        <v>233</v>
+        <v>96</v>
       </c>
       <c r="D6">
-        <v>233</v>
+        <v>96</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,19 +752,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>283</v>
+        <v>93</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K6">
-        <v>0.8537859007832899</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>327</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>327</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -782,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>56</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -790,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3333333333333333</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K7">
-        <v>0.8392857142857143</v>
+        <v>0.8198433420365535</v>
       </c>
       <c r="L7">
-        <v>94</v>
+        <v>314</v>
       </c>
       <c r="M7">
-        <v>94</v>
+        <v>314</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,13 +834,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2684563758389262</v>
+        <v>0.439922480620155</v>
       </c>
       <c r="C8">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="D8">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -858,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>109</v>
+        <v>289</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -882,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -890,13 +884,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1468253968253968</v>
+        <v>0.2684563758389262</v>
       </c>
       <c r="C9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -908,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>215</v>
+        <v>109</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K9">
-        <v>0.8048780487804879</v>
+        <v>0.80625</v>
       </c>
       <c r="L9">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="M9">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -932,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -940,13 +934,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.08579088471849866</v>
+        <v>0.1468253968253968</v>
       </c>
       <c r="C10">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -958,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>341</v>
+        <v>215</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K10">
-        <v>0.7816901408450704</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L10">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="M10">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -982,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -990,37 +984,37 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01842275371687136</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C11">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E11">
-        <v>0.19</v>
+        <v>0.03</v>
       </c>
       <c r="F11">
-        <v>0.8100000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>3037</v>
+        <v>341</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K11">
-        <v>0.7777777777777778</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L11">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="M11">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1032,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1040,37 +1034,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01228733459357278</v>
+        <v>0.01685575364667747</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E12">
-        <v>0.51</v>
+        <v>0.3</v>
       </c>
       <c r="F12">
-        <v>0.49</v>
+        <v>0.7</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>2090</v>
+        <v>3033</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K12">
-        <v>0.7758620689655172</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L12">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M12">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1082,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1090,13 +1084,13 @@
         <v>29</v>
       </c>
       <c r="K13">
-        <v>0.7735849056603774</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1108,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1116,13 +1110,13 @@
         <v>30</v>
       </c>
       <c r="K14">
-        <v>0.765625</v>
+        <v>0.7734375</v>
       </c>
       <c r="L14">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M14">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1134,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1142,13 +1136,13 @@
         <v>31</v>
       </c>
       <c r="K15">
-        <v>0.75</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L15">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="M15">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1160,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1168,13 +1162,13 @@
         <v>32</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L16">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="M16">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1186,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1194,13 +1188,13 @@
         <v>33</v>
       </c>
       <c r="K17">
-        <v>0.746031746031746</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L17">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1212,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1246,13 +1240,13 @@
         <v>35</v>
       </c>
       <c r="K19">
-        <v>0.72</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L19">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M19">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1264,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1272,13 +1266,13 @@
         <v>36</v>
       </c>
       <c r="K20">
-        <v>0.7021276595744681</v>
+        <v>0.65</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1298,13 +1292,13 @@
         <v>37</v>
       </c>
       <c r="K21">
-        <v>0.6401673640167364</v>
+        <v>0.64</v>
       </c>
       <c r="L21">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1316,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1324,13 +1318,13 @@
         <v>38</v>
       </c>
       <c r="K22">
-        <v>0.625</v>
+        <v>0.638235294117647</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1342,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1350,13 +1344,13 @@
         <v>39</v>
       </c>
       <c r="K23">
-        <v>0.6235294117647059</v>
+        <v>0.6033898305084746</v>
       </c>
       <c r="L23">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="M23">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1368,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1376,25 +1370,25 @@
         <v>40</v>
       </c>
       <c r="K24">
-        <v>0.6170212765957447</v>
+        <v>0.592436974789916</v>
       </c>
       <c r="L24">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="M24">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>36</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1402,13 +1396,13 @@
         <v>41</v>
       </c>
       <c r="K25">
-        <v>0.6153846153846154</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L25">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M25">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1420,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1428,25 +1422,25 @@
         <v>42</v>
       </c>
       <c r="K26">
-        <v>0.5884353741496599</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="L26">
-        <v>173</v>
+        <v>50</v>
       </c>
       <c r="M26">
-        <v>174</v>
+        <v>50</v>
       </c>
       <c r="N26">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>121</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1454,13 +1448,13 @@
         <v>43</v>
       </c>
       <c r="K27">
-        <v>0.5571428571428572</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L27">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="M27">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1472,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1480,13 +1474,13 @@
         <v>44</v>
       </c>
       <c r="K28">
-        <v>0.5393258426966292</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L28">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="M28">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1498,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1506,13 +1500,13 @@
         <v>45</v>
       </c>
       <c r="K29">
-        <v>0.5294117647058824</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L29">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M29">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1524,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1532,25 +1526,25 @@
         <v>46</v>
       </c>
       <c r="K30">
-        <v>0.4366197183098591</v>
+        <v>0.02136349355953503</v>
       </c>
       <c r="L30">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="M30">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="N30">
-        <v>0.9399999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="O30">
-        <v>0.06000000000000005</v>
+        <v>0.21</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>40</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1558,103 +1552,25 @@
         <v>47</v>
       </c>
       <c r="K31">
-        <v>0.3717948717948718</v>
+        <v>0.0146295422369042</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17">
-      <c r="J32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K32">
-        <v>0.08116883116883117</v>
-      </c>
-      <c r="L32">
-        <v>25</v>
-      </c>
-      <c r="M32">
-        <v>25</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K33">
-        <v>0.0160427807486631</v>
-      </c>
-      <c r="L33">
-        <v>51</v>
-      </c>
-      <c r="M33">
-        <v>73</v>
-      </c>
-      <c r="N33">
-        <v>0.7</v>
-      </c>
-      <c r="O33">
-        <v>0.3</v>
-      </c>
-      <c r="P33" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q33">
-        <v>3128</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34">
-        <v>0.01275389702409069</v>
-      </c>
-      <c r="L34">
-        <v>27</v>
-      </c>
-      <c r="M34">
-        <v>53</v>
-      </c>
-      <c r="N34">
-        <v>0.51</v>
-      </c>
-      <c r="O34">
-        <v>0.49</v>
-      </c>
-      <c r="P34" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q34">
-        <v>2090</v>
+        <v>2088</v>
       </c>
     </row>
   </sheetData>
